--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -14,9 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node还不如用来开发cli应用呢，开发桌面应用有个diao用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 seconds of codes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -387,6 +395,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>43669</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>43670</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,6 +25,10 @@
   </si>
   <si>
     <t>30 seconds of codes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个人的价值在于给公司创造的价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -411,6 +415,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>43671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>43672</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>43673</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,6 +29,30 @@
   </si>
   <si>
     <t>一个人的价值在于给公司创造的价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为人处事的学问要一点一点的学习啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一篇博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node文档过一遍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,19 +403,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="65.125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>43668</v>
       </c>
@@ -399,7 +424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43669</v>
       </c>
@@ -407,7 +432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>43670</v>
       </c>
@@ -415,12 +440,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>43671</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>43672</v>
       </c>
@@ -428,9 +453,46 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>43673</v>
+        <v>43675</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>node文档过一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项目，不能乱看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +410,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,6 +490,12 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>43682</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>

--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,13 +59,20 @@
   <si>
     <t>选项目，不能乱看</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instant Messager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/substack/stream-handbook</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +85,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -97,15 +113,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -407,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -501,13 +520,27 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>43691</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +65,13 @@
   </si>
   <si>
     <t>https://github.com/substack/stream-handbook</t>
+  </si>
+  <si>
+    <t>segmentfault回答问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.starterstory.com/</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -530,17 +536,34 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>43697</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>43700</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1"/>
+    <hyperlink ref="C16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,7 +71,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.starterstory.com/</t>
+    <t>https://www.yuque.com/d2forum/content/d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next goal is Go, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -432,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,7 +557,16 @@
       <c r="A16" s="1">
         <v>43700</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>43707</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -561,7 +574,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C15" r:id="rId1"/>
-    <hyperlink ref="C16" r:id="rId2"/>
+    <hyperlink ref="C17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.yuque.com/d2forum/content/d213</t>
-  </si>
-  <si>
     <t xml:space="preserve">next goal is Go, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeInPractice看完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>express</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表一篇博客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tech.meituan.com/2016/07/08/stream-basics.html</t>
+  </si>
+  <si>
+    <t>React</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一步一步的前进，一个需求一个需求的做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,12 +126,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,10 +153,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,33 +575,62 @@
         <v>13</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>43700</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>43700</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
+      <c r="A15" s="1">
+        <v>43707</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>43707</v>
-      </c>
-      <c r="B17" t="s">
+        <v>43710</v>
+      </c>
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1"/>
-    <hyperlink ref="C17" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>

--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5520"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="日记" sheetId="1" r:id="rId1"/>
+    <sheet name="人生减法" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,11 +91,71 @@
     <t>https://tech.meituan.com/2016/07/08/stream-basics.html</t>
   </si>
   <si>
-    <t>React</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一步一步的前进，一个需求一个需求的做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天结束了NodeInPractice这本书，把基础的看完了，高级的不看了。一些知识点，等遇到了再细究。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太想搞聊天项目了，那下一步搞什么项目呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特币爆仓，亏损7000块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go一天3讲，一个月看完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端精进计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我以后不看书学编程了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备技术分享的东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node不能丢，go + node two legs one way</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>react</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodejs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>golang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webgl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一假期过完了，计划下一步的目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术分享（本周）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +197,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,11 +226,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -463,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,24 +684,73 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>43724</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>43733</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
-        <v>20</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>43734</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>43746</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -635,4 +762,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5520"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日记" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,30 @@
   </si>
   <si>
     <t>技术分享（本周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天react HOC看完，币乎上不知道能不能发表一篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要向他们安利React来开发项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天看完深入JSX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天压力太大了，鼻炎又犯了，难受ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.10号之前，前端都没什么事情，公司也不知道能不能撑到过了年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodejs做后端没啥意思</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -728,7 +752,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -751,6 +775,56 @@
       </c>
       <c r="C27" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>43753</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>43754</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>43756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>43760</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>43761</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>43762</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -768,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -780,7 +854,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>29</v>
       </c>
     </row>

--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5520" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="日记" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,51 +135,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TypeScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十一假期过完了，计划下一步的目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术分享（本周）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天react HOC看完，币乎上不知道能不能发表一篇文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要向他们安利React来开发项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天看完深入JSX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天压力太大了，鼻炎又犯了，难受ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.10号之前，前端都没什么事情，公司也不知道能不能撑到过了年。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodejs做后端没啥意思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近闲了下来，但是压力又变的好大，精神紧张，鼻炎又犯了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专注前端开发，前端架构，我的title是前端工程师。那怎么才能提高自己的前端技能呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向工作、工资编程，而不是服从兴趣编程。 That's the point.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goLang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活中不止有技术。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望能多写文章吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>node后端可以只关注api层，不用管前端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月份的目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>golang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TypeScript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Angular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>webgl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十一假期过完了，计划下一步的目标。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术分享（本周）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天react HOC看完，币乎上不知道能不能发表一篇文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我要向他们安利React来开发项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天看完深入JSX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天压力太大了，鼻炎又犯了，难受ing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11.10号之前，前端都没什么事情，公司也不知道能不能撑到过了年。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nodejs做后端没啥意思</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +245,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +277,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -565,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -771,10 +789,10 @@
         <v>43746</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -782,12 +800,12 @@
         <v>43753</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -795,7 +813,7 @@
         <v>43754</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -808,23 +826,76 @@
         <v>43760</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>43761</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>43762</v>
       </c>
       <c r="B34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>43763</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="B36" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>43767</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -840,16 +911,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -864,18 +935,8 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
+      <c r="A4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,22 @@
   </si>
   <si>
     <t>golang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学啥都行，不要精神分裂了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要光想跑了，走还不会呢，就想跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码太难了，不是我这个段位的人能看懂的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看源码是要带着问题去看的，不然没什么效果，或者就看最基础类库的源码，而不是逮住一个项目的源码就开始看，没屌用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -896,6 +912,29 @@
       </c>
       <c r="C42" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="B46" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,10 @@
   </si>
   <si>
     <t>看源码是要带着问题去看的，不然没什么效果，或者就看最基础类库的源码，而不是逮住一个项目的源码就开始看，没屌用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被公司辞退了，准备面试…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -935,6 +939,14 @@
     <row r="46" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/文档/thought.xlsx
+++ b/文档/thought.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,13 +224,17 @@
   </si>
   <si>
     <t>被公司辞退了，准备面试…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿到了华夏银行龙盈智达的offer，下周一入职。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +321,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -603,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -947,6 +951,14 @@
       </c>
       <c r="B47" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>43798</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
